--- a/biology/Botanique/Hablitzia/Hablitzia.xlsx
+++ b/biology/Botanique/Hablitzia/Hablitzia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hablitzia est un genre de plantes monotypique de la famille des Amaranthaceae (sous-famille des Betoideae), qui comprend une seule espèce, Hablitzia tamnoides, originaire de la région du Caucase.
-C'est une plante herbacée vivace, grimpante qui peut monter jusqu'à 3 mètres en été[2].
-Ses feuilles sont comestibles, comme celles de l'épinard, espèce apparentée, ce qui vaut à la plante le surnom d'« épinard grimpant du caucase »[3],[4].
+C'est une plante herbacée vivace, grimpante qui peut monter jusqu'à 3 mètres en été.
+Ses feuilles sont comestibles, comme celles de l'épinard, espèce apparentée, ce qui vaut à la plante le surnom d'« épinard grimpant du caucase »,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique Hablitzia est un hommage à Carl Ludwig Hablitz, naturaliste du XVIIIe siècle qui fut aussi vice-gouverneur de la Crimée. L'épithète spécifique, tamnoides, fait référence à l'aspect de la plante et de ses feuilles qui évoquent beaucoup celles du tamier commun, Tamus communis.
 </t>
